--- a/componment_info_quiry/dest/标准件.xlsx
+++ b/componment_info_quiry/dest/标准件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="247">
   <si>
     <t>Part Number</t>
   </si>
@@ -67,37 +67,19 @@
     <t>ROHS</t>
   </si>
   <si>
-    <t>20001-00013</t>
-  </si>
-  <si>
-    <t>20001-00017</t>
-  </si>
-  <si>
-    <t>20001-00030</t>
+    <t>20001-00012</t>
   </si>
   <si>
     <t>20001-00041</t>
   </si>
   <si>
-    <t>20001-00058</t>
-  </si>
-  <si>
-    <t>20001-00066</t>
-  </si>
-  <si>
-    <t>20001-00118</t>
-  </si>
-  <si>
-    <t>20001-00167</t>
-  </si>
-  <si>
-    <t>20001-00292</t>
-  </si>
-  <si>
-    <t>20001-00314</t>
-  </si>
-  <si>
-    <t>20001-00345</t>
+    <t>20001-00173</t>
+  </si>
+  <si>
+    <t>20001-00192</t>
+  </si>
+  <si>
+    <t>20001-00211</t>
   </si>
   <si>
     <t>20001-00480</t>
@@ -106,97 +88,82 @@
     <t>20001-00856</t>
   </si>
   <si>
-    <t>20005-00066</t>
-  </si>
-  <si>
-    <t>21001-00124</t>
-  </si>
-  <si>
-    <t>21002-00006</t>
-  </si>
-  <si>
-    <t>21002-00012</t>
-  </si>
-  <si>
     <t>21002-00030</t>
   </si>
   <si>
     <t>21002-00033</t>
   </si>
   <si>
-    <t>21003-00051</t>
-  </si>
-  <si>
-    <t>21003-00055</t>
-  </si>
-  <si>
-    <t>21003-00116</t>
+    <t>21003-00031</t>
+  </si>
+  <si>
+    <t>21003-00037</t>
+  </si>
+  <si>
+    <t>21003-00076</t>
   </si>
   <si>
     <t>21003-00124</t>
   </si>
   <si>
-    <t>21003-00171</t>
-  </si>
-  <si>
-    <t>21003-00206</t>
-  </si>
-  <si>
-    <t>21003-00263</t>
-  </si>
-  <si>
-    <t>22001-00011</t>
-  </si>
-  <si>
-    <t>22002-00016</t>
-  </si>
-  <si>
-    <t>22005-00007</t>
-  </si>
-  <si>
-    <t>22005-00020</t>
+    <t>21006-00013</t>
+  </si>
+  <si>
+    <t>22001-00023</t>
+  </si>
+  <si>
+    <t>22001-00034</t>
+  </si>
+  <si>
+    <t>22003-00015</t>
+  </si>
+  <si>
+    <t>22003-00025</t>
+  </si>
+  <si>
+    <t>22003-00035</t>
+  </si>
+  <si>
+    <t>22005-00002</t>
+  </si>
+  <si>
+    <t>22005-00066</t>
   </si>
   <si>
     <t>22006-00021</t>
   </si>
   <si>
-    <t>22007-00021</t>
-  </si>
-  <si>
-    <t>22010-00003</t>
-  </si>
-  <si>
-    <t>22010-00023</t>
-  </si>
-  <si>
-    <t>22010-00024</t>
-  </si>
-  <si>
-    <t>23002-00026</t>
-  </si>
-  <si>
-    <t>23003-00070</t>
-  </si>
-  <si>
-    <t>23003-00218</t>
-  </si>
-  <si>
-    <t>23003-00255</t>
-  </si>
-  <si>
-    <t>23004-00028</t>
-  </si>
-  <si>
-    <t>23004-00042</t>
-  </si>
-  <si>
-    <t>23004-00103</t>
-  </si>
-  <si>
-    <t>23004-00106</t>
-  </si>
-  <si>
-    <t>23004-00446</t>
+    <t>22009-00015</t>
+  </si>
+  <si>
+    <t>22009-00067</t>
+  </si>
+  <si>
+    <t>23003-00078</t>
+  </si>
+  <si>
+    <t>23004-00044</t>
+  </si>
+  <si>
+    <t>23004-00089</t>
+  </si>
+  <si>
+    <t>23004-00313</t>
+  </si>
+  <si>
+    <t>23004-00462</t>
+  </si>
+  <si>
+    <t>29003-00085</t>
+  </si>
+  <si>
+    <t>32004-00093</t>
+  </si>
+  <si>
+    <t>32004-00136</t>
+  </si>
+  <si>
+    <t>32006-00005</t>
   </si>
   <si>
     <t>36001-00017</t>
@@ -205,46 +172,31 @@
     <t>36002-00018</t>
   </si>
   <si>
-    <t>36002-00022</t>
-  </si>
-  <si>
-    <t>36002-00023</t>
+    <t>36002-00065</t>
   </si>
   <si>
     <t>36002-00114</t>
   </si>
   <si>
-    <t>片状电阻;1/10;12k;±1%;0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-1.5KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-2.2KΩ±1%-0603;RoHS</t>
+    <t>36002-00354</t>
+  </si>
+  <si>
+    <t>36002-00949</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-1.2KΩ±1%-0603;RoHS</t>
   </si>
   <si>
     <t>片状电阻;1/10W-3.3KΩ±1%-0603;RoHS</t>
   </si>
   <si>
-    <t>片状电阻;1/10W-510KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W;6.8kΩ;±1%;0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/8W;1MΩ;±1%;0805;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/8W- 51kΩ±1%-0805;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/4W-270KΩ±1%-1206;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-49.9KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/8W-5.1Ω±1％-0805;RoHS</t>
+    <t>片状电阻;1/8W-6.2KΩ±1%-0805,RoHS</t>
+  </si>
+  <si>
+    <t>片状电阻;1/4W;120Ω;±5%;1206;RoHS</t>
+  </si>
+  <si>
+    <t>片状电阻;1/4W-1MΩ±1%-1206;RoHS</t>
   </si>
   <si>
     <t>片状电阻;1/4W;30Ω±1%;1206;RoHS</t>
@@ -253,97 +205,82 @@
     <t>片状电阻;1/10W;24Ω;±1%;0603;RoHS;汽车级</t>
   </si>
   <si>
-    <t>热敏电阻;NTC;10kΩ;0805;B=3435K;RoHS</t>
-  </si>
-  <si>
-    <t>超级电容;0.47F±30%/5.5V/PIN距5mm/21.5*8;RoHS</t>
-  </si>
-  <si>
-    <t>贴片电解电容;16V-100μF±20%-6.3*5.7-105℃,RoHS</t>
-  </si>
-  <si>
-    <t>贴片电解电容;25VDC;100uF;±20%;6.3*8mm;-55℃～+105 ℃;2000h/105 ℃;RoHS</t>
-  </si>
-  <si>
     <t>贴片电解电容;16V;220uF;±20%;尺寸6.3*7.7mm;-55℃～105℃;1000h/105℃;RoHS</t>
   </si>
   <si>
     <t>贴片电解电容;25VDC;220uF;±20%;尺寸8*10mm;-40℃～125℃;2000h/125℃;RoHS</t>
   </si>
   <si>
-    <t>片状电容;20pF±5%-50V-0603-NPO;RoHS</t>
-  </si>
-  <si>
-    <t>片状电容;25V;1uF;10%;X7R;0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状陶瓷电容器;50V;22pF±5%;NPO;0603;0.9mm;ROHS</t>
+    <t>片状电容;10uF±10%-16V-1206-X7R;RoHS</t>
+  </si>
+  <si>
+    <t>片状电容;1nF±20%-2KV-1206-X7R;RoHS</t>
+  </si>
+  <si>
+    <t>片状电容1000pF;±10%;250V;X7R;1206;RoHS</t>
   </si>
   <si>
     <t>片状电容;50VDC;10uF;±10%;X5R;1206;RoHS</t>
   </si>
   <si>
-    <t>片状电容;50V;5pF;±0.5%;NPO;0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电容;100V;1uF;10%;X7R;1206;RoHS</t>
-  </si>
-  <si>
-    <t>片状电容;50V;100pF;±5%;NPO;0603;汽车级;RoHS</t>
-  </si>
-  <si>
-    <t>整流二极管;100V;200mA;0.82V;SOT23;RoHS</t>
-  </si>
-  <si>
-    <t>稳压二极管;5.1@Izt=5mA;0.225;SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>肖特基二极管;30V,200mA;SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>肖特基二极管;30V;0.2A;0.33V;SOD-123;RoHS</t>
+    <t>安规瓷片电容;4700pF±20%-400VAC(UL250VAC)-Φ12-PIN=10-Y1;RoHS</t>
+  </si>
+  <si>
+    <t>整流二极管;200V/2A;SMA-403D;RoHS</t>
+  </si>
+  <si>
+    <t>整流二极管;75V;0.15A;1V;SOD-123;RoHS</t>
+  </si>
+  <si>
+    <t>TVS二极管;双瞬态TVS管;5.8V;1mA;6.45V;13.4V;298A;SMB;RoHS</t>
+  </si>
+  <si>
+    <t>TVS二极管阵列;5V;12A;SO23-6L;RoHS</t>
+  </si>
+  <si>
+    <t>TVS二极管;双管单向;8V;8V;18A;SOT-23;RoHS</t>
+  </si>
+  <si>
+    <t>肖特基二极管;40.0;5.0;0.75@If=5A;DO-214AB;RoHS</t>
+  </si>
+  <si>
+    <t>肖特基二极管;200V;4A;0.86V;SMC;ROHS;汽车级</t>
   </si>
   <si>
     <t>发光二极管;绿色;15mcd;贴片;RoHS</t>
   </si>
   <si>
-    <t>PNP三极管;-60.0;-5.0;SC-63;RoHS</t>
-  </si>
-  <si>
-    <t>晶振;12MHz;±20ppm;SMD3225;RoHS</t>
-  </si>
-  <si>
-    <t>晶振;32.768KHZ;±20ppm;3215;RoHS</t>
-  </si>
-  <si>
-    <t>晶振;20.000MHz;20ppm;SMD3225;RoHS</t>
-  </si>
-  <si>
-    <t>存储器;1.8~5.5V;32K SPI serial CMOS EEPROM;SOIC-8;RoHS</t>
-  </si>
-  <si>
-    <t>逻辑电路;时钟芯片;-40~85℃(工业级）;SOIC-8;RoHS</t>
-  </si>
-  <si>
-    <t>逻辑电路;缓冲器/驱动器;八路/3态输出;TSSOP-20;引脚一边输入/一边输出;RoHS</t>
-  </si>
-  <si>
-    <t>逻辑电路;模拟开关/多路复用器;SOIC;RoHS</t>
-  </si>
-  <si>
-    <t>达林顿组;ULN2003ADR;SOIC-16;RoHS</t>
-  </si>
-  <si>
-    <t>电压基准源;VREF2.5V/1%/SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>电压基准;VREF3V/0.2%/SOT-23;RoHS</t>
-  </si>
-  <si>
-    <t>线性电路;四运放;-15～+15 V;SO-14;RoHS</t>
-  </si>
-  <si>
-    <t>线性电路;三端稳压器;0.8A;3.3V;Vin:2.6~15V;15V;TO252-3;RoHS</t>
+    <t>光耦;单路;CTR200%～400%;4;3;5000.0;GW4(SOP4);RoHS</t>
+  </si>
+  <si>
+    <t>光耦;1.7μs;1.7μs;4000V;SSO-8;RoHS</t>
+  </si>
+  <si>
+    <t>逻辑电路;模拟开关/多工器;5~18 V;SOIC-16;CU NIPDAU;RoHS</t>
+  </si>
+  <si>
+    <t>线性电路;RS-485收发器;4.5～5.5 V;SO-8;RoHS</t>
+  </si>
+  <si>
+    <t>CAN收发器;集成2路光耦隔离;SOP-8;RoHS</t>
+  </si>
+  <si>
+    <t>DC-DC BUCK;SO8_PAD;TPS54331;3.5V~28V;3A;RoHS</t>
+  </si>
+  <si>
+    <t>线性电路;USB数字隔离器;双向;5000 VRMS isolation;5.0V;SOIC-16 WIDE;RoHS</t>
+  </si>
+  <si>
+    <t>继电器;2A;240VAC/30VDC;5VDC;40mA;UL/CUL;信号继电器;RoHS</t>
+  </si>
+  <si>
+    <t>保险管;30V;0.16A;1206;可恢复保险;RoHS</t>
+  </si>
+  <si>
+    <t>保险管;16V;0.75A;1206;可恢复保险;RoHS</t>
+  </si>
+  <si>
+    <t>陶瓷气体放电管;90V;5kA;5*7.5mm;SMD;RoHS</t>
   </si>
   <si>
     <t>排针（方脚）;2P/单排/直脚/PIN距2.54mm/脚总长11.54mm;RoHS</t>
@@ -352,46 +289,31 @@
     <t>白色连接器;2P/直脚/PIN距2.50mm/打K脚;RoHS</t>
   </si>
   <si>
-    <t>插座/连接器;白色连接器;1*6PIN;插座;直脚;PCB焊接型;3.6 mm;PIN距2.5mm;打K脚;RoHS</t>
-  </si>
-  <si>
-    <t>插座/连接器;白色连接器;8pin;直脚;PCB焊接型;PIN距2.5mm;打K脚;RoHS</t>
+    <t>插座/连接器;RJ45网口插座;8.0;插座;直脚;PCB焊接型;立式;全塑黑色;RoHS</t>
   </si>
   <si>
     <t>白色连接器;4P/PIN距2.50mm/直脚/打K脚;RoHS</t>
   </si>
   <si>
-    <t>0603WAF1202T5E;12KΩ±F-0603;WR06X1202FTL;</t>
-  </si>
-  <si>
-    <t>1.5KΩ±F-0603;WR06X1501FTL;0603WAF1501T5E;</t>
-  </si>
-  <si>
-    <t>2.2KΩ±F-0603;0603WAF2201;WR06X2201FTL;</t>
+    <t>插座、连接器;USB底座-A型;4PIN;插座;直脚;PCB焊接型;1A;2.9mm;白胶;RoHS</t>
+  </si>
+  <si>
+    <t>插座、连接器;直针牛角;2*20PIN;公头;插座;直脚;PCB焊接型;1A;3mm;PIN距2.0mm</t>
+  </si>
+  <si>
+    <t>WR06X1201FTL;RC0603FR-071K2L;0603WAF1201T5E;</t>
   </si>
   <si>
     <t>WR06X3301FTL;0603WAF3301T5E;3.3KΩ±F-0603;</t>
   </si>
   <si>
-    <t>WR06X5103FTL;0603WAF5103T5E;510KΩ±F-0603;</t>
-  </si>
-  <si>
-    <t>WR06X6801FTL;0603WAF6801T5E;6.8KΩ±F-0603;</t>
-  </si>
-  <si>
-    <t>1MΩ±F-0805;RC0805FR-071ML;WR08X1004FTL;</t>
-  </si>
-  <si>
-    <t>51KΩ±F-0805;WR08X5102FTL;RC0805FR-0751KL;</t>
-  </si>
-  <si>
-    <t>WR12X2703FTL;1206W4F2703T5E;RC1206FR-07270KL;</t>
-  </si>
-  <si>
-    <t>0603WAF4992T5E;WR06X4992FTL;RC0603FR-0749K9L;</t>
-  </si>
-  <si>
-    <t>5.1Ω±F-0805;WR08W5R10FTL;</t>
+    <t>WR08X6201FTL;6.2KΩ±F-0805;RC0805FR-076K2L;</t>
+  </si>
+  <si>
+    <t>WR12X121 JTL;RC1206JR-07120RL;120Ω±J-1206;</t>
+  </si>
+  <si>
+    <t>1/4W-1MΩ±1%-1206;RC1206FR-071ML;WR12X1004FTL;</t>
   </si>
   <si>
     <t>1206W4F300JT5E;RC1206FR-0730RL;WR12X30R0FTL;</t>
@@ -400,97 +322,82 @@
     <t>MR06X24R0FTL;HQ03WAF2400T5E;AC0603FR-0724RL;</t>
   </si>
   <si>
-    <t>TSM2A103J34D3RZ;</t>
-  </si>
-  <si>
-    <t>EECF5R5U474;</t>
-  </si>
-  <si>
-    <t>16CE100BS(无锡);VZH-16V-100μF±20%-6.3*5.7-105℃;</t>
-  </si>
-  <si>
-    <t>25VTZV100M6.3X8;</t>
-  </si>
-  <si>
     <t>UWT1C221MCL1GS;16CE220FS;</t>
   </si>
   <si>
     <t>VUA221M1ETR-0810L;EMVH250ARA221MHA0G;</t>
   </si>
   <si>
-    <t>GRM1885C1H200JA01D;CC0603JRNPO9BN200;0603N200J500CT;C1608COG1H200JT;</t>
-  </si>
-  <si>
-    <t>C1608X7R1E105KT;CC0603KRX7R8BB105;0603B105K250CT;</t>
-  </si>
-  <si>
-    <t>CC0603JRNPO9BN220;MC03JTN500220;0603N220J500CT;</t>
+    <t>CL31F106KOHNNNE(无锡);GRM31CR71C106KA12L;C3216X7R1C106K;</t>
+  </si>
+  <si>
+    <t>1206B102M202NT;CC1206KKX7RDBB102(无锡);</t>
+  </si>
+  <si>
+    <t>1206B102K251CT;C1206X102K251T;1206B102K251NT;CC1206KRX7RYBB102;</t>
   </si>
   <si>
     <t>C3216X5R1H106KT;GRM31CR61H106KA12;</t>
   </si>
   <si>
-    <t>CC0603CRNPO9BN5R0;</t>
-  </si>
-  <si>
-    <t>CC1206KKX7R0BB105（宝信）;1206B105K101CT;</t>
-  </si>
-  <si>
-    <t>06035A101J4T2A;C0603C101J5GACAUTO;CGA3E2C0G1H101JT0Y0N;GCM1885C1H101JA16D;</t>
-  </si>
-  <si>
-    <t>LMBD7000LT1G;MMBD7000;MMBD7000LT1G;</t>
-  </si>
-  <si>
-    <t>BZX84C5V1LT1G;BZX84C5V1;LBZX84C5V1LT1G;</t>
-  </si>
-  <si>
-    <t>BAT54SLT1G;BAT54S;BAT54SFIL;BAT54S;</t>
-  </si>
-  <si>
-    <t>BAT43W;</t>
+    <t>DE1E3KX472MA4BN01F-UL;</t>
+  </si>
+  <si>
+    <t>MURA220T3G;</t>
+  </si>
+  <si>
+    <t>1N4148W;</t>
+  </si>
+  <si>
+    <t>SM6T6V8CA;</t>
+  </si>
+  <si>
+    <t>824015;TVS4201MR6T1G;</t>
+  </si>
+  <si>
+    <t>GSOT08C-V-G-08;PJSOT08C-05;</t>
+  </si>
+  <si>
+    <t>SK54;</t>
+  </si>
+  <si>
+    <t>NRVBS4201T3G;</t>
   </si>
   <si>
     <t>LTST-C150KGKT;</t>
   </si>
   <si>
-    <t>MJD42C;2SA1952TLQ;</t>
-  </si>
-  <si>
-    <t>SJK-7U-12.000-18-20-80-B-30;</t>
-  </si>
-  <si>
-    <t>SJK-7L-32.768K-12.5-20-70-C;</t>
-  </si>
-  <si>
-    <t>SJK-7U-20.000-20-20-60-C-20;</t>
-  </si>
-  <si>
-    <t>CAT25256VI-GT3;</t>
-  </si>
-  <si>
-    <t>DS1302SN+;DS1302SN+(交通);</t>
-  </si>
-  <si>
-    <t>MC74ACT541DTR2G;74ACT541MTCX;</t>
-  </si>
-  <si>
-    <t>SN74CBT3257CD;74FST3257DR2G;</t>
-  </si>
-  <si>
-    <t>ULN2003ADR;</t>
-  </si>
-  <si>
-    <t>KA431SAMFTF;TL431ACDBZR;</t>
-  </si>
-  <si>
-    <t>REF3030AIDBZR;</t>
-  </si>
-  <si>
-    <t>TL074IDR;TL074I;</t>
-  </si>
-  <si>
-    <t>LM1117IDTX-3.3/NOPB;</t>
+    <t>LTV-816S-TP-C-CU-UL;PC123X5YIP0F-UL;</t>
+  </si>
+  <si>
+    <t>AMC1301DWVR;ACPL-C790-500E;</t>
+  </si>
+  <si>
+    <t>CD4051BM96;</t>
+  </si>
+  <si>
+    <t>SN65HVD3082EDR;</t>
+  </si>
+  <si>
+    <t>ISO1050DUBR-UL;</t>
+  </si>
+  <si>
+    <t>TPS54331;</t>
+  </si>
+  <si>
+    <t>ADUM4160BRWZ-RL;</t>
+  </si>
+  <si>
+    <t>HFD16/5-ZH-TN;</t>
+  </si>
+  <si>
+    <t>LP-NSM016;</t>
+  </si>
+  <si>
+    <t>SMD1206B075TF/16;HSMD1206-075/16;</t>
+  </si>
+  <si>
+    <t>ZD3R90A-TP1;</t>
   </si>
   <si>
     <t>单排直针1*2P 2.54 6.0/*/3.0;313S02S11;1201-021-012-4;</t>
@@ -499,22 +406,19 @@
     <t>6253P021S11;KF25003-2A;CI2202P1VK0;2504S-2P(K);JS-1001-02;2001S-2P（T）;1343-021-010-1;</t>
   </si>
   <si>
-    <t>JS-1001-06;KF25003-WAG-6P;1343-061-010-1;</t>
-  </si>
-  <si>
-    <t>2504S-8P(K);XH-08;</t>
+    <t>1338-288-110-0;</t>
   </si>
   <si>
     <t>1343-041-010-1;CI2204P1VK0;</t>
   </si>
   <si>
-    <t>Uni-ohm;国巨;华新科;</t>
-  </si>
-  <si>
-    <t>国巨;华新科;Uni-ohm;</t>
-  </si>
-  <si>
-    <t>国巨;Uni-ohm;华新科;</t>
+    <t>43100XV0S00;USB-A-S-1*4S;CNT019-4PSW;USB-A-S-VT;</t>
+  </si>
+  <si>
+    <t>1241-401-222-4;392440R14B;</t>
+  </si>
+  <si>
+    <t>华新科;国巨;Uni-ohm;</t>
   </si>
   <si>
     <t>华新科;Uni-ohm;国巨;</t>
@@ -523,94 +427,76 @@
     <t>华新科;厚声;国巨;</t>
   </si>
   <si>
+    <t>华新科;国巨;厚声;</t>
+  </si>
+  <si>
+    <t>厚声;国巨;华新科;</t>
+  </si>
+  <si>
     <t>厚声;YAGEO;华新科;</t>
   </si>
   <si>
-    <t>厚声;华新科;国巨;</t>
-  </si>
-  <si>
-    <t>Uni-ohm;华新科;国巨;</t>
-  </si>
-  <si>
-    <t>国巨;华新科;</t>
-  </si>
-  <si>
-    <t>为勤;</t>
-  </si>
-  <si>
-    <t>PANASONIC;</t>
-  </si>
-  <si>
-    <t>SANYO;Lelon;</t>
-  </si>
-  <si>
-    <t>RUBOCON;</t>
-  </si>
-  <si>
     <t>NICHICON;SUNCON;</t>
   </si>
   <si>
     <t>Lelon;NCC;</t>
   </si>
   <si>
-    <t>MURATA;国巨;华新科;TDK;</t>
-  </si>
-  <si>
-    <t>TDK;国巨;华新科;</t>
-  </si>
-  <si>
-    <t>国巨;VIKING;华新科;</t>
+    <t>三星;MURATA;TDK;</t>
+  </si>
+  <si>
+    <t>风华高科;国巨;</t>
+  </si>
+  <si>
+    <t>华新科;Holy Stone;风华高科;国巨;</t>
   </si>
   <si>
     <t>TDK;MURATA;</t>
   </si>
   <si>
-    <t>国巨;</t>
-  </si>
-  <si>
-    <t>AVX;KEMET;TDK;MURATA;</t>
-  </si>
-  <si>
-    <t>LRC;PANJIT;ON;</t>
-  </si>
-  <si>
-    <t>ON;PANJIT;LRC;</t>
-  </si>
-  <si>
-    <t>ON;PHILIPS;ST(无锡);FAIRCHILD;</t>
+    <t>MURATA;</t>
+  </si>
+  <si>
+    <t>ON;</t>
   </si>
   <si>
     <t>PANJIT;</t>
   </si>
   <si>
+    <t>ST;</t>
+  </si>
+  <si>
+    <t>WURTH;ON;</t>
+  </si>
+  <si>
+    <t>VISHAY;PANJIT;</t>
+  </si>
+  <si>
     <t>台湾光宝;</t>
   </si>
   <si>
-    <t>长电科技;ROHM;</t>
-  </si>
-  <si>
-    <t>晶科鑫;</t>
-  </si>
-  <si>
-    <t>ON;</t>
-  </si>
-  <si>
-    <t>MAXIM;DALLAS;</t>
-  </si>
-  <si>
-    <t>ON;FAIRCHILD;</t>
-  </si>
-  <si>
-    <t>TI;ON;</t>
+    <t>台湾光宝;SHARP;</t>
+  </si>
+  <si>
+    <t>TI;AVAGO;</t>
   </si>
   <si>
     <t>TI;</t>
   </si>
   <si>
-    <t>FAIRCHILD;TI;</t>
-  </si>
-  <si>
-    <t>TI;ST;</t>
+    <t>ADI;</t>
+  </si>
+  <si>
+    <t>宏发;</t>
+  </si>
+  <si>
+    <t>shanghai wayon;</t>
+  </si>
+  <si>
+    <t>君耀电子;HOLLY;</t>
+  </si>
+  <si>
+    <t>星火;</t>
   </si>
   <si>
     <t>上海丝诚;联益;盛凌;</t>
@@ -619,235 +505,214 @@
     <t>联益;KEFA;瀚荃;连昌;乔讯电子;南士科技;盛凌;</t>
   </si>
   <si>
-    <t>乔讯电子;KEFA(无锡);泰德康;</t>
-  </si>
-  <si>
-    <t>连昌;泰德康;</t>
+    <t>盛凌;</t>
   </si>
   <si>
     <t>盛凌;瀚荃;</t>
   </si>
   <si>
+    <t>联益;南士科技;GYC(无锡);ADAM;</t>
+  </si>
+  <si>
+    <t>盛凌;联益;</t>
+  </si>
+  <si>
     <t>EACH</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R384,R385,R386,R387,R388,R389,R390</t>
-  </si>
-  <si>
-    <t>R196</t>
-  </si>
-  <si>
-    <t>R416,R417,R418,R419</t>
-  </si>
-  <si>
-    <t>R253,R254,R255,R256,R257,R258</t>
-  </si>
-  <si>
-    <t>R56,R57,R58,R59,R60,R61,R62,R63,R95,R96,R152,R153,R154,R155,R205,R206,R207,R208,R209,R210,R211,R212,R213,R214,R215,R216,R231,R232,R273,R274,R275,R276,R277,R278,R279,R280,R281,R282,R283,R284,R285,R286,R289,R290,R291,R292,R403,R404</t>
-  </si>
-  <si>
-    <t>R225,R226,R229,R230,R233,R234</t>
-  </si>
-  <si>
-    <t>R241,R242,R243,R244,R245,R246,R247,R248,R249,R250,R251,R252</t>
-  </si>
-  <si>
-    <t>R409,R410,R411,R412,R414,R415</t>
-  </si>
-  <si>
-    <t>R380,R381</t>
-  </si>
-  <si>
-    <t>R178</t>
-  </si>
-  <si>
-    <t>R420,R421,R422,R423,R424,R425,R426,R427,R428,R429,R430,R431</t>
-  </si>
-  <si>
-    <t>R6,R190</t>
-  </si>
-  <si>
-    <t>RT1</t>
-  </si>
-  <si>
-    <t>C222</t>
-  </si>
-  <si>
-    <t>C196,C219,C220,C221,C277</t>
-  </si>
-  <si>
-    <t>C16,C17,C18,C19</t>
-  </si>
-  <si>
-    <t>C14,C15</t>
-  </si>
-  <si>
-    <t>C193,C194,C195,C223</t>
-  </si>
-  <si>
-    <t>C84,C85,C145,C164,C167,C168,C198,C211,C212,C213,C214,C217</t>
-  </si>
-  <si>
-    <t>C305</t>
-  </si>
-  <si>
-    <t>C47,C48,C90,C190</t>
-  </si>
-  <si>
-    <t>C40,C41,C42,C69,C88,C132,C133,C197,C199,C290,C291</t>
-  </si>
-  <si>
-    <t>C191,C192</t>
-  </si>
-  <si>
-    <t>C175,C176,C177,C178,C179,C180,C181,C182,C183,C184,C185,C186,C187,C188,C189</t>
-  </si>
-  <si>
-    <t>C218,C235,C265,C266,C278,C279,C280,C281,C282,C283,C284,C285,C286</t>
-  </si>
-  <si>
-    <t>D24,D25,D26,D27,D32,D33,D36,D40,D41,D42,D43,D44,D45,D46,D55,D56,D57,D58,D61,D62,D64,D69,D70,D71,D72,D73,D74,D75,D76,D77,D78,D79,D80,D81,D82,D84,D85,D86,D87,D92,D93</t>
-  </si>
-  <si>
-    <t>Z1,Z2,Z3,Z4,Z5,Z6</t>
-  </si>
-  <si>
-    <t>D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21,D22,D23,D28,D29,D30,D31,D34,D35,D37,D38,D39,D47,D48,D49,D50,D51,D52,D53,D54,D59,D60,D63,D65,D66,D67,D68,D96,D97,D98</t>
-  </si>
-  <si>
-    <t>D99</t>
-  </si>
-  <si>
-    <t>LED1,LED2,LED3</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>U19</t>
-  </si>
-  <si>
-    <t>U21</t>
-  </si>
-  <si>
-    <t>U14,U15,U16,U17,U18,U20,U27,U28</t>
-  </si>
-  <si>
-    <t>U22,U24,U25,U32</t>
-  </si>
-  <si>
-    <t>U29,U30</t>
-  </si>
-  <si>
-    <t>U2,U3</t>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R66,R91,R93,R96,R97,R98,R99,R100,R101,R102,R104,R114,R115,R118,R124,R128</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R15,R19,R20,R21</t>
+  </si>
+  <si>
+    <t>R125,R126</t>
+  </si>
+  <si>
+    <t>R64,R73,R88,R89,R90,R92,R116,R117,R119,R120,R122,R123</t>
+  </si>
+  <si>
+    <t>R32,R34,R35,R36</t>
+  </si>
+  <si>
+    <t>C37,C40</t>
+  </si>
+  <si>
+    <t>C1,C2,C80,C85</t>
+  </si>
+  <si>
+    <t>C53,C95,C96,C97,C98,C99,C105,C108</t>
+  </si>
+  <si>
+    <t>C88</t>
+  </si>
+  <si>
+    <t>C68,C69,C70,C71,C90,C91,C111,C112</t>
+  </si>
+  <si>
+    <t>C59,C60,C61,C62,C63,C64,C127,C128</t>
+  </si>
+  <si>
+    <t>C89,C104,C106,C109,C110</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Z1,Z3,Z4,Z5,Z6,Z7,Z8,Z9,Z10,Z11,Z12,Z13,Z14,Z15,Z16,Z17,Z18,Z19,Z20,Z21,Z22,Z23,Z26,Z27,Z28,Z29,Z30</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z31,Z32</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>PC2,PC3,PC4,PC6,PC7,PC8,PC9,PC10,PC13,PC14,PC15,PC16,PC17,PC18,PC21,PC24</t>
+  </si>
+  <si>
+    <t>PC1,PC5,PC11,PC12</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U2,U3,U6,U7</t>
+  </si>
+  <si>
+    <t>U4,U5</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>U5,U6,U7,U8,U9,U10,U11,U13,U23</t>
-  </si>
-  <si>
-    <t>U31</t>
-  </si>
-  <si>
-    <t>J1,J2,J3,J4</t>
-  </si>
-  <si>
-    <t>CN7</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>CN6</t>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>GDT1,GDT2,GDT3,GDT4</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>CN13</t>
+  </si>
+  <si>
+    <t>CN1,CN2,CN3,CN4,CN5,CN6</t>
+  </si>
+  <si>
+    <t>CN7,CN8</t>
+  </si>
+  <si>
+    <t>CN11</t>
+  </si>
+  <si>
+    <t>CN9</t>
+  </si>
+  <si>
+    <t>C;F;C;C;</t>
+  </si>
+  <si>
+    <t>C;B;A;</t>
+  </si>
+  <si>
+    <t>C;C;C;</t>
+  </si>
+  <si>
+    <t>C;B;B;</t>
+  </si>
+  <si>
+    <t>B;A;C;</t>
   </si>
   <si>
     <t>B;B;C;</t>
   </si>
   <si>
+    <t>C;C;</t>
+  </si>
+  <si>
     <t>B;C;B;</t>
   </si>
   <si>
-    <t>C;B;A;</t>
-  </si>
-  <si>
-    <t>C;B;B;</t>
-  </si>
-  <si>
-    <t>B;A;C;</t>
-  </si>
-  <si>
-    <t>C;C;C;F;</t>
-  </si>
-  <si>
-    <t>C;C;C;</t>
-  </si>
-  <si>
-    <t>B;C;</t>
+    <t>A;B;</t>
+  </si>
+  <si>
+    <t>C;C;B;B;</t>
+  </si>
+  <si>
+    <t>B;B;</t>
+  </si>
+  <si>
+    <t>F;B;F;</t>
+  </si>
+  <si>
+    <t>B;F;</t>
+  </si>
+  <si>
+    <t>F;B;</t>
+  </si>
+  <si>
+    <t>B;B;F;</t>
   </si>
   <si>
     <t>B;</t>
   </si>
   <si>
-    <t>B;B;</t>
-  </si>
-  <si>
-    <t>C;C;</t>
-  </si>
-  <si>
-    <t>B;B;C;B;</t>
-  </si>
-  <si>
-    <t>C;C;C;C;</t>
-  </si>
-  <si>
-    <t>F;B;B;B;</t>
-  </si>
-  <si>
-    <t>A;B;B;</t>
-  </si>
-  <si>
-    <t>A;B;B;F;B;</t>
-  </si>
-  <si>
-    <t>F;B;</t>
+    <t>C;</t>
   </si>
   <si>
     <t>F;F;C;</t>
   </si>
   <si>
-    <t>C;B;</t>
-  </si>
-  <si>
-    <t>F;C;</t>
+    <t>F;F;B;B;F;F;</t>
+  </si>
+  <si>
+    <t>C;B;F;</t>
+  </si>
+  <si>
+    <t>F;C;F;</t>
+  </si>
+  <si>
+    <t>C;F;</t>
+  </si>
+  <si>
+    <t>D;B;B;B;</t>
+  </si>
+  <si>
+    <t>C;B;B;B;C;F;B;B;F;</t>
   </si>
   <si>
     <t>B;F;B;</t>
   </si>
   <si>
-    <t>C;</t>
-  </si>
-  <si>
-    <t>D;B;B;B;</t>
-  </si>
-  <si>
-    <t>C;B;B;B;C;F;B;B;F;</t>
+    <t>B;B;B;B;</t>
   </si>
   <si>
     <t>光伏松岗</t>
@@ -859,46 +724,37 @@
     <t>全无库存</t>
   </si>
   <si>
+    <t>RoHS; ; ;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ; ;RoHS;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ;RoHS; ;</t>
-  </si>
-  <si>
-    <t>RoHS; ; ;</t>
-  </si>
-  <si>
-    <t>RoHS;RoHS;RoHS;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ;RoHS;</t>
+    <t>非RoHS;非RoHS;</t>
+  </si>
+  <si>
+    <t>RoHS;RoHS;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; ; ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; ;</t>
+  </si>
+  <si>
+    <t>RoHS;RoHS;RoHS;RoHS;</t>
   </si>
   <si>
     <t xml:space="preserve"> ;</t>
   </si>
   <si>
-    <t xml:space="preserve"> ; ;</t>
-  </si>
-  <si>
-    <t>非RoHS;非RoHS;</t>
-  </si>
-  <si>
-    <t>RoHS;RoHS;</t>
-  </si>
-  <si>
-    <t>RoHS;RoHS;RoHS;RoHS;</t>
+    <t>RoHS;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; ; ; ; ; ; ;</t>
   </si>
   <si>
     <t xml:space="preserve"> ; ; ; ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ; ; ;</t>
-  </si>
-  <si>
-    <t>RoHS;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ; ; ; ; ; ; ;</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,52 +1179,52 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I2">
         <v>60</v>
       </c>
       <c r="J2">
-        <v>14788</v>
+        <v>4601</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17805</v>
+        <v>70390</v>
       </c>
       <c r="M2">
-        <v>1704</v>
+        <v>4726</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10320</v>
+        <v>19712</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="Q2" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R2" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1379,52 +1235,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="J3">
-        <v>21553</v>
+        <v>19635</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>216980</v>
+        <v>274867</v>
       </c>
       <c r="M3">
-        <v>2242</v>
+        <v>6420</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10950</v>
+        <v>115852</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="Q3" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1435,52 +1291,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="I4">
         <v>60</v>
       </c>
       <c r="J4">
-        <v>40755</v>
+        <v>27180</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>200559</v>
+        <v>618312</v>
       </c>
       <c r="M4">
-        <v>10070</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>19026</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="Q4" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="R4" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1491,52 +1347,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="I5">
         <v>90</v>
       </c>
       <c r="J5">
-        <v>39413</v>
+        <v>20198</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>383511</v>
+        <v>69965</v>
       </c>
       <c r="M5">
-        <v>10674</v>
+        <v>7640</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>128086</v>
+        <v>14122</v>
       </c>
       <c r="P5" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="Q5" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R5" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1547,52 +1403,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6">
-        <v>110</v>
-      </c>
       <c r="J6">
-        <v>1721</v>
+        <v>47812</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7101</v>
+        <v>3112079</v>
       </c>
       <c r="M6">
-        <v>6314</v>
+        <v>7486</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6255</v>
+        <v>95164</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="Q6" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="R6" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1603,52 +1459,52 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="I7">
-        <v>530</v>
+        <v>170</v>
       </c>
       <c r="J7">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>162222</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27360</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="R7" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1659,34 +1515,34 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="I8">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J8">
-        <v>3811</v>
+        <v>104</v>
       </c>
       <c r="K8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>501004</v>
+        <v>13815</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1698,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="Q8" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="R8" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1715,34 +1571,34 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="I9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>23805</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>40</v>
+        <v>5400</v>
       </c>
       <c r="L9">
-        <v>352016</v>
+        <v>8586</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1754,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="Q9" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="R9" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1771,52 +1627,52 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>1043</v>
+      </c>
+      <c r="K10">
+        <v>63244</v>
+      </c>
+      <c r="L10">
+        <v>16103</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
         <v>213</v>
       </c>
-      <c r="I10">
-        <v>110</v>
-      </c>
-      <c r="J10">
-        <v>23888</v>
-      </c>
-      <c r="K10">
-        <v>35</v>
-      </c>
-      <c r="L10">
-        <v>90956</v>
-      </c>
-      <c r="M10">
-        <v>7346</v>
-      </c>
-      <c r="N10">
-        <v>20000</v>
-      </c>
-      <c r="O10">
-        <v>1130</v>
-      </c>
-      <c r="P10" t="s">
-        <v>260</v>
-      </c>
       <c r="Q10" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="R10" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1827,52 +1683,52 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11">
+        <v>130</v>
+      </c>
+      <c r="J11">
+        <v>33256</v>
+      </c>
+      <c r="K11">
+        <v>422000</v>
+      </c>
+      <c r="L11">
+        <v>62994</v>
+      </c>
+      <c r="M11">
+        <v>15560</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82202</v>
+      </c>
+      <c r="P11" t="s">
         <v>214</v>
       </c>
-      <c r="I11">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>312</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>4640</v>
-      </c>
-      <c r="M11">
-        <v>382</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>35558</v>
-      </c>
-      <c r="P11" t="s">
-        <v>260</v>
-      </c>
       <c r="Q11" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R11" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1883,52 +1739,52 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="I12">
         <v>60</v>
       </c>
       <c r="J12">
-        <v>12675</v>
+        <v>10550</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>25021</v>
+        <v>75937</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3835</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4347</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="Q12" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="R12" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1939,52 +1795,52 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13">
+        <v>130</v>
+      </c>
+      <c r="J13">
+        <v>145</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4411</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
         <v>216</v>
       </c>
-      <c r="I13">
-        <v>170</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>254</v>
-      </c>
       <c r="Q13" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="R13" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1995,52 +1851,52 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <v>14442</v>
+      </c>
+      <c r="K14">
+        <v>2000</v>
+      </c>
+      <c r="L14">
+        <v>77224</v>
+      </c>
+      <c r="M14">
+        <v>212</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>9030</v>
+      </c>
+      <c r="P14" t="s">
         <v>217</v>
       </c>
-      <c r="I14">
-        <v>70</v>
-      </c>
-      <c r="J14">
-        <v>324</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>14320</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>260</v>
-      </c>
       <c r="Q14" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="R14" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2051,52 +1907,52 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>3928</v>
+      </c>
+      <c r="K15">
+        <v>1400</v>
+      </c>
+      <c r="L15">
+        <v>64219</v>
+      </c>
+      <c r="M15">
+        <v>6049</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>21427</v>
+      </c>
+      <c r="P15" t="s">
         <v>218</v>
       </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>23834</v>
-      </c>
-      <c r="K15">
-        <v>14000</v>
-      </c>
-      <c r="L15">
-        <v>7041</v>
-      </c>
-      <c r="M15">
-        <v>460</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>3360</v>
-      </c>
-      <c r="P15" t="s">
-        <v>262</v>
-      </c>
       <c r="Q15" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R15" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2107,52 +1963,52 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8633</v>
       </c>
       <c r="M16">
-        <v>8870</v>
+        <v>5317</v>
       </c>
       <c r="N16">
-        <v>16300</v>
+        <v>15000</v>
       </c>
       <c r="O16">
-        <v>5367</v>
+        <v>10697</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="Q16" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="R16" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2163,52 +2019,52 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>28483</v>
+        <v>25240</v>
       </c>
       <c r="K17">
-        <v>87000</v>
+        <v>40500</v>
       </c>
       <c r="L17">
-        <v>30850</v>
+        <v>138870</v>
       </c>
       <c r="M17">
-        <v>31954</v>
+        <v>11979</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>57930</v>
+        <v>49000</v>
       </c>
       <c r="P17" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="Q17" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R17" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2219,52 +2075,52 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="J18">
-        <v>8199</v>
+        <v>571</v>
       </c>
       <c r="K18">
-        <v>88390</v>
+        <v>40000</v>
       </c>
       <c r="L18">
-        <v>15977</v>
+        <v>29606</v>
       </c>
       <c r="M18">
-        <v>5175</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>20700</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>580</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="Q18" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="R18" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2275,34 +2131,34 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7200</v>
+        <v>120</v>
       </c>
       <c r="L19">
-        <v>7776</v>
+        <v>105</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2314,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="Q19" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="R19" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2331,52 +2187,52 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>6734</v>
+        <v>14441</v>
       </c>
       <c r="K20">
-        <v>116856</v>
+        <v>75000</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>29672</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12132</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>46622</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="Q20" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="R20" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2387,52 +2243,52 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="I21">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>45557</v>
+        <v>5226</v>
       </c>
       <c r="K21">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1295311</v>
+        <v>27774</v>
       </c>
       <c r="M21">
-        <v>16411</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>41968</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Q21" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="R21" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2443,52 +2299,52 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
         <v>60</v>
       </c>
-      <c r="J22">
-        <v>50661</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>119042</v>
+        <v>4663</v>
       </c>
       <c r="M22">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="Q22" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="R22" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2499,52 +2355,52 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="I23">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>681</v>
+        <v>589</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>62251</v>
+        <v>115797</v>
       </c>
       <c r="M23">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="Q23" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="R23" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2555,52 +2411,52 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="I24">
         <v>160</v>
       </c>
       <c r="J24">
-        <v>24941</v>
+        <v>31375</v>
       </c>
       <c r="K24">
-        <v>80000</v>
+        <v>277000</v>
       </c>
       <c r="L24">
-        <v>19942</v>
+        <v>176412</v>
       </c>
       <c r="M24">
-        <v>332</v>
+        <v>10404</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="O24">
-        <v>9420</v>
+        <v>5580</v>
       </c>
       <c r="P24" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="Q24" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="R24" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2611,52 +2467,52 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="I25">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10281</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>36988</v>
       </c>
       <c r="L25">
-        <v>3770</v>
+        <v>62970</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="Q25" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="R25" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2667,25 +2523,25 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="I26">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2697,22 +2553,22 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>11182</v>
+        <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q26" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="R26" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2723,52 +2579,52 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="I27">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="J27">
-        <v>8134</v>
+        <v>19732</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="L27">
-        <v>63106</v>
+        <v>63825</v>
       </c>
       <c r="M27">
-        <v>80</v>
+        <v>12456</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="O27">
-        <v>6750</v>
+        <v>4479</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="Q27" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="R27" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2779,52 +2635,52 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G28">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="I28">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>106255</v>
+        <v>13481</v>
       </c>
       <c r="K28">
-        <v>1369000</v>
+        <v>75550</v>
       </c>
       <c r="L28">
-        <v>1230901</v>
+        <v>5134</v>
       </c>
       <c r="M28">
-        <v>42482</v>
+        <v>62</v>
       </c>
       <c r="N28">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>3456</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="Q28" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="R28" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2835,34 +2691,34 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="I29">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>67236</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>65889</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2874,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="Q29" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="R29" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2891,52 +2747,52 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G30">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>950</v>
+      </c>
+      <c r="P30" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" t="s">
         <v>233</v>
       </c>
-      <c r="I30">
-        <v>490</v>
-      </c>
-      <c r="J30">
-        <v>40596</v>
-      </c>
-      <c r="K30">
-        <v>1176000</v>
-      </c>
-      <c r="L30">
-        <v>696321</v>
-      </c>
-      <c r="M30">
-        <v>3680</v>
-      </c>
-      <c r="N30">
-        <v>9000</v>
-      </c>
-      <c r="O30">
-        <v>3040</v>
-      </c>
-      <c r="P30" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>279</v>
-      </c>
       <c r="R30" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2947,52 +2803,52 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>4062</v>
+        <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="Q31" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="R31" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3003,52 +2859,52 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="I32">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>2668</v>
+        <v>821</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>120845</v>
+        <v>10287</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="Q32" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="R32" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3059,52 +2915,52 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="M33">
-        <v>29394</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>4346</v>
+        <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="Q33" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="R33" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3115,34 +2971,34 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J34">
-        <v>3172</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1902</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3154,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="Q34" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="R34" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3171,52 +3027,52 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <v>53</v>
+        <v>39780</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>28600</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>39540</v>
       </c>
       <c r="M35">
-        <v>6300</v>
+        <v>8989</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>10295</v>
+        <v>8544</v>
       </c>
       <c r="P35" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="Q35" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="R35" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3227,52 +3083,52 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <v>15929</v>
+        <v>45910</v>
       </c>
       <c r="K36">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="L36">
-        <v>12062</v>
+        <v>33313</v>
       </c>
       <c r="M36">
-        <v>3718</v>
+        <v>9830</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>6180</v>
+        <v>16374</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="Q36" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="R36" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3283,34 +3139,34 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3322,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="Q37" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="R37" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3339,52 +3195,52 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
         <v>204</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>198</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>747</v>
+      </c>
+      <c r="M38">
+        <v>4070</v>
+      </c>
+      <c r="N38">
+        <v>1000</v>
+      </c>
+      <c r="O38">
+        <v>4520</v>
+      </c>
+      <c r="P38" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>233</v>
+      </c>
+      <c r="R38" t="s">
         <v>241</v>
-      </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1968</v>
-      </c>
-      <c r="M38">
-        <v>2520</v>
-      </c>
-      <c r="N38">
-        <v>2000</v>
-      </c>
-      <c r="O38">
-        <v>1850</v>
-      </c>
-      <c r="P38" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>279</v>
-      </c>
-      <c r="R38" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3395,34 +3251,34 @@
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>9418</v>
+        <v>66</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3434,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="Q39" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="R39" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3451,25 +3307,25 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="I40">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3481,582 +3337,22 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="Q40" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="R40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>244</v>
-      </c>
-      <c r="I41">
-        <v>20</v>
-      </c>
-      <c r="J41">
-        <v>3552</v>
-      </c>
-      <c r="K41">
-        <v>15000</v>
-      </c>
-      <c r="L41">
-        <v>16853</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>279</v>
-      </c>
-      <c r="R41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>245</v>
-      </c>
-      <c r="I42">
-        <v>20</v>
-      </c>
-      <c r="J42">
-        <v>18754</v>
-      </c>
-      <c r="K42">
-        <v>345000</v>
-      </c>
-      <c r="L42">
-        <v>181745</v>
-      </c>
-      <c r="M42">
-        <v>3634</v>
-      </c>
-      <c r="N42">
-        <v>6000</v>
-      </c>
-      <c r="O42">
-        <v>7060</v>
-      </c>
-      <c r="P42" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>278</v>
-      </c>
-      <c r="R42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>246</v>
-      </c>
-      <c r="I43">
-        <v>10</v>
-      </c>
-      <c r="J43">
-        <v>76</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>2845</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>1429</v>
-      </c>
-      <c r="P43" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>278</v>
-      </c>
-      <c r="R43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
-        <v>247</v>
-      </c>
-      <c r="I44">
-        <v>90</v>
-      </c>
-      <c r="J44">
-        <v>1009</v>
-      </c>
-      <c r="K44">
-        <v>20000</v>
-      </c>
-      <c r="L44">
-        <v>13358</v>
-      </c>
-      <c r="M44">
-        <v>14605</v>
-      </c>
-      <c r="N44">
-        <v>12500</v>
-      </c>
-      <c r="O44">
-        <v>617</v>
-      </c>
-      <c r="P44" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>279</v>
-      </c>
-      <c r="R44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" t="s">
-        <v>204</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45">
-        <v>10</v>
-      </c>
-      <c r="J45">
-        <v>2613</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>18484</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>279</v>
-      </c>
-      <c r="R45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" t="s">
-        <v>204</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>249</v>
-      </c>
-      <c r="I46">
-        <v>40</v>
-      </c>
-      <c r="J46">
-        <v>51961</v>
-      </c>
-      <c r="K46">
-        <v>37600</v>
-      </c>
-      <c r="L46">
-        <v>98993</v>
-      </c>
-      <c r="M46">
-        <v>13488</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>13800</v>
-      </c>
-      <c r="P46" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>278</v>
-      </c>
-      <c r="R46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>250</v>
-      </c>
-      <c r="I47">
-        <v>10</v>
-      </c>
-      <c r="J47">
-        <v>49869</v>
-      </c>
-      <c r="K47">
-        <v>54350</v>
-      </c>
-      <c r="L47">
-        <v>29003</v>
-      </c>
-      <c r="M47">
-        <v>16186</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>18481</v>
-      </c>
-      <c r="P47" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>278</v>
-      </c>
-      <c r="R47" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>251</v>
-      </c>
-      <c r="I48">
-        <v>10</v>
-      </c>
-      <c r="J48">
-        <v>15822</v>
-      </c>
-      <c r="K48">
-        <v>23000</v>
-      </c>
-      <c r="L48">
-        <v>11222</v>
-      </c>
-      <c r="M48">
-        <v>949</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>2890</v>
-      </c>
-      <c r="P48" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>278</v>
-      </c>
-      <c r="R48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>252</v>
-      </c>
-      <c r="I49">
-        <v>10</v>
-      </c>
-      <c r="J49">
-        <v>22598</v>
-      </c>
-      <c r="K49">
-        <v>49000</v>
-      </c>
-      <c r="L49">
-        <v>13692</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>10</v>
-      </c>
-      <c r="P49" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>280</v>
-      </c>
-      <c r="R49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" t="s">
-        <v>204</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>253</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-      <c r="J50">
-        <v>14</v>
-      </c>
-      <c r="K50">
-        <v>1460</v>
-      </c>
-      <c r="L50">
-        <v>85</v>
-      </c>
-      <c r="M50">
-        <v>6439</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>7788</v>
-      </c>
-      <c r="P50" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>278</v>
-      </c>
-      <c r="R50" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
